--- a/Database/Helperland_database.xlsx
+++ b/Database/Helperland_database.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\psd-to-html\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E6897-3B39-4091-BD5B-80F82AFC353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C421EED4-70C5-4E0D-921A-AB4863CB253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="881" activeTab="7" xr2:uid="{0FF1C49D-5F74-432D-BAEA-4097385627F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="881" activeTab="11" xr2:uid="{0FF1C49D-5F74-432D-BAEA-4097385627F9}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="2" r:id="rId1"/>
     <sheet name="UserType" sheetId="1" r:id="rId2"/>
-    <sheet name="Address" sheetId="3" r:id="rId3"/>
-    <sheet name="ContactUs" sheetId="7" r:id="rId4"/>
-    <sheet name="PostalCode" sheetId="8" r:id="rId5"/>
-    <sheet name="ServiceStatus" sheetId="9" r:id="rId6"/>
-    <sheet name="ExtraService" sheetId="13" r:id="rId7"/>
-    <sheet name="ServiceSchedule" sheetId="10" r:id="rId8"/>
-    <sheet name="Favourite_Block_Servicer" sheetId="11" r:id="rId9"/>
-    <sheet name="BlockCustomer" sheetId="14" r:id="rId10"/>
-    <sheet name="Rating" sheetId="12" r:id="rId11"/>
+    <sheet name="Servicer" sheetId="15" r:id="rId3"/>
+    <sheet name="Address" sheetId="3" r:id="rId4"/>
+    <sheet name="ContactUs" sheetId="7" r:id="rId5"/>
+    <sheet name="PostalCode" sheetId="8" r:id="rId6"/>
+    <sheet name="ServiceStatus" sheetId="9" r:id="rId7"/>
+    <sheet name="ExtraService" sheetId="13" r:id="rId8"/>
+    <sheet name="ServiceSchedule" sheetId="10" r:id="rId9"/>
+    <sheet name="Favourite_Block_Servicer" sheetId="11" r:id="rId10"/>
+    <sheet name="BlockCustomer" sheetId="14" r:id="rId11"/>
+    <sheet name="Rating" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
   <si>
     <t>UserType</t>
   </si>
@@ -203,9 +204,6 @@
     <t>Total_payment</t>
   </si>
   <si>
-    <t>Foreign key (Customer)</t>
-  </si>
-  <si>
     <t>Foreign key (Servicer)</t>
   </si>
   <si>
@@ -215,12 +213,6 @@
     <t>FavouriteServicer_id</t>
   </si>
   <si>
-    <t>Block_servicer_id</t>
-  </si>
-  <si>
-    <t>Fav_servicer_id</t>
-  </si>
-  <si>
     <t>Rating</t>
   </si>
   <si>
@@ -272,22 +264,34 @@
     <t>Block_customer_id</t>
   </si>
   <si>
-    <t>Foreign key (Servicer -&gt;  Servicer_id)</t>
-  </si>
-  <si>
-    <t>Foreign key (Customer -&gt; Customer_id)</t>
-  </si>
-  <si>
     <t>Is_address_selected</t>
   </si>
   <si>
     <t>Users</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>Foreign key (Users)</t>
+  </si>
+  <si>
+    <t>User_id</t>
+  </si>
+  <si>
+    <t>Servicer</t>
+  </si>
+  <si>
+    <t>Primary key, Foreign key(Users)</t>
+  </si>
+  <si>
+    <t>With_pet</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Is_fav</t>
+  </si>
+  <si>
+    <t>Is_block</t>
   </si>
 </sst>
 </file>
@@ -344,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -358,16 +362,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827779C-D9DC-4A38-B960-9FC4D8ED086B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,52 +704,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
@@ -850,91 +857,39 @@
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
@@ -951,13 +906,17 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -965,6 +924,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C71E959-ED0D-4038-8EDE-466EC44C7148}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDF54A8-B768-4CE8-AD24-8C695F04B330}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -980,11 +1031,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -999,7 +1050,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1016,18 +1067,18 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1038,11 +1089,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1610F47E-9B64-4087-8F92-F12139B6CDEB}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1054,11 +1105,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1073,7 +1124,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1090,12 +1141,12 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -1104,7 +1155,7 @@
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -1113,7 +1164,7 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1122,7 +1173,7 @@
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -1148,52 +1199,52 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -1218,8 +1269,8 @@
         <v>8</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1240,11 +1291,170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406A781-451B-4C94-920B-A8025D062BA1}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63136E-1555-4EDA-8611-D81FBD4A0150}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,31 +1465,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
@@ -1288,9 +1498,9 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1309,13 +1519,13 @@
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -1356,7 +1566,7 @@
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>27</v>
@@ -1373,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF21280-18C6-4434-82D2-38ECE66ECE2B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1389,11 +1599,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1479,7 +1689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C551FF8-68D8-41F1-B840-76DECE0E1CCA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1495,11 +1705,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1549,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B4285F-BD73-4B03-8189-C451629C7473}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1565,11 +1775,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1608,7 +1818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084D6175-32E3-49D0-A6EE-4E386CF4CC5C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1624,11 +1834,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1643,7 +1853,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1660,12 +1870,12 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -1674,7 +1884,7 @@
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -1683,7 +1893,7 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1697,12 +1907,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794D55D5-35F4-48FD-98D0-B51A1DC9776F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,11 +1923,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1749,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1760,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1825,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1845,92 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C71E959-ED0D-4038-8EDE-466EC44C7148}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Helperland_database.xlsx
+++ b/Database/Helperland_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\psd-to-html\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C421EED4-70C5-4E0D-921A-AB4863CB253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F70D32C-5A05-4F61-8D2C-3CEF1688FE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="881" activeTab="11" xr2:uid="{0FF1C49D-5F74-432D-BAEA-4097385627F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="881" xr2:uid="{0FF1C49D-5F74-432D-BAEA-4097385627F9}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
   <si>
     <t>UserType</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Servicer</t>
   </si>
   <si>
-    <t>Primary key, Foreign key(Users)</t>
-  </si>
-  <si>
     <t>With_pet</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>Is_block</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foreign key(Users)</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -365,16 +368,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827779C-D9DC-4A38-B960-9FC4D8ED086B}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -704,192 +707,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
@@ -906,17 +913,13 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -928,7 +931,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,11 +942,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -991,7 +994,7 @@
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>27</v>
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,11 +1034,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1093,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1610F47E-9B64-4087-8F92-F12139B6CDEB}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,11 +1108,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1199,78 +1202,78 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1292,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406A781-451B-4C94-920B-A8025D062BA1}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,145 +1307,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1454,7 +1475,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,31 +1486,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
@@ -1498,9 +1519,9 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1599,11 +1620,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1705,11 +1726,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1764,7 +1785,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,11 +1796,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1799,7 +1820,9 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1823,7 +1846,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,11 +1857,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1912,7 +1935,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,11 +1946,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
